--- a/sessions/Subjects.xlsx
+++ b/sessions/Subjects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\escob\Desktop\PhD\BDs\Protesis-IA\sessions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1996448A-88FD-4338-842F-14E38888A90F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F3C3EC6-45C6-4677-8F6E-42094E76C404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>ID</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>Skin Condition</t>
+  </si>
+  <si>
+    <t>Date Added</t>
   </si>
 </sst>
 </file>
@@ -369,7 +372,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J1" sqref="J1"/>
@@ -381,9 +384,10 @@
     <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -411,13 +415,16 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
